--- a/data/timesheet.xlsx
+++ b/data/timesheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="5080" windowWidth="10440" windowHeight="10160" xr2:uid="{247C58A7-6264-3D4E-A960-D57B68684EDE}"/>
+    <workbookView xWindow="6440" yWindow="7580" windowWidth="10440" windowHeight="10160" activeTab="1" xr2:uid="{247C58A7-6264-3D4E-A960-D57B68684EDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Timesheet for Tim</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Update to Django 2.0</t>
   </si>
   <si>
-    <t>Update python to 3.5</t>
-  </si>
-  <si>
     <t>Update other items?</t>
   </si>
   <si>
@@ -55,6 +52,21 @@
   </si>
   <si>
     <t>Make pages admin only</t>
+  </si>
+  <si>
+    <t>Update python to 3.6</t>
+  </si>
+  <si>
+    <t>On canceling order, don't get rid of date of last sale</t>
+  </si>
+  <si>
+    <t>Push updates to web</t>
+  </si>
+  <si>
+    <t>Test importexcel from web</t>
+  </si>
+  <si>
+    <t>Write downloadsales (requires table for last download)</t>
   </si>
 </sst>
 </file>
@@ -428,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BB605E-4798-DC4A-BA1D-6857BF56C83D}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,6 +509,9 @@
       <c r="A8" s="2">
         <v>43132</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -505,10 +520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D546355D-AB62-B540-9AA9-3F86644AD739}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,12 +538,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -538,22 +553,42 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/timesheet.xlsx
+++ b/data/timesheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="7580" windowWidth="10440" windowHeight="10160" activeTab="1" xr2:uid="{247C58A7-6264-3D4E-A960-D57B68684EDE}"/>
+    <workbookView xWindow="6440" yWindow="7580" windowWidth="10440" windowHeight="10160" xr2:uid="{247C58A7-6264-3D4E-A960-D57B68684EDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BB605E-4798-DC4A-BA1D-6857BF56C83D}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,6 +511,30 @@
       </c>
       <c r="B8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>43134</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>43135</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B11">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -522,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D546355D-AB62-B540-9AA9-3F86644AD739}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>

--- a/data/timesheet.xlsx
+++ b/data/timesheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="7580" windowWidth="10440" windowHeight="10160" xr2:uid="{247C58A7-6264-3D4E-A960-D57B68684EDE}"/>
+    <workbookView xWindow="17020" yWindow="620" windowWidth="10440" windowHeight="10160" xr2:uid="{247C58A7-6264-3D4E-A960-D57B68684EDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BB605E-4798-DC4A-BA1D-6857BF56C83D}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,7 +534,15 @@
         <v>43140</v>
       </c>
       <c r="B11">
-        <v>1.5</v>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>43142</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -547,7 +555,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,7 +579,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -596,17 +604,17 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
     </row>

--- a/data/timesheet.xlsx
+++ b/data/timesheet.xlsx
@@ -1,97 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wahhab/Sites/rts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C01C7F42-231A-9A42-B3D5-715B9ECD2BA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17020" yWindow="620" windowWidth="10440" windowHeight="10160" xr2:uid="{247C58A7-6264-3D4E-A960-D57B68684EDE}"/>
+    <workbookView xWindow="24780" yWindow="13160" windowWidth="27640" windowHeight="16940" xr2:uid="{6BBACE2F-5368-244E-961E-2B2B095D7D80}"/>
   </bookViews>
   <sheets>
-    <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
-    <sheet name="todos" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Timesheet for Tim</t>
-  </si>
-  <si>
-    <t>Prep</t>
-  </si>
-  <si>
-    <t>To Do for Tim</t>
-  </si>
-  <si>
-    <t>Update to Django 2.0</t>
-  </si>
-  <si>
-    <t>Update other items?</t>
-  </si>
-  <si>
-    <t>https://docs.djangoproject.com/en/2.0/howto/upgrade-version/</t>
-  </si>
-  <si>
-    <t>Rename tim_year to year_begun ?</t>
-  </si>
-  <si>
-    <t>File Picker for export</t>
-  </si>
-  <si>
-    <t>Make pages admin only</t>
-  </si>
-  <si>
-    <t>Update python to 3.6</t>
-  </si>
-  <si>
-    <t>On canceling order, don't get rid of date of last sale</t>
-  </si>
-  <si>
-    <t>Push updates to web</t>
-  </si>
-  <si>
-    <t>Test importexcel from web</t>
-  </si>
-  <si>
-    <t>Write downloadsales (requires table for last download)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>TimeSheet for RTS Comics</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Post site for Photo-Journals only</t>
+  </si>
+  <si>
+    <t>Work on Zip+4 access from USPS</t>
+  </si>
+  <si>
+    <t>Clean up Photo-Journal processing</t>
+  </si>
+  <si>
+    <t>Review Spreadsheet Uploads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,13 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,11 +408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BB605E-4798-DC4A-BA1D-6857BF56C83D}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793FA332-5464-224F-832B-DC45C8D66E8E}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,176 +422,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B4">
+        <v>2.5</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>43125</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>43127</v>
-      </c>
-      <c r="B4">
-        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43128</v>
+        <v>43854</v>
       </c>
       <c r="B5">
-        <v>3.5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.14583333333333334</v>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>43130</v>
+      <c r="A6" s="1">
+        <v>43859</v>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.10416666666666667</v>
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>43131</v>
+      <c r="A7" s="1">
+        <v>43860</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>43132</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>43134</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>43135</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>43140</v>
-      </c>
-      <c r="B11">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>43142</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D546355D-AB62-B540-9AA9-3F86644AD739}">
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>1.3</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/timesheet.xlsx
+++ b/data/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wahhab/Sites/rts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C01C7F42-231A-9A42-B3D5-715B9ECD2BA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C2E9DB-A6C0-264C-8870-C2F6ACC2243F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24780" yWindow="13160" windowWidth="27640" windowHeight="16940" xr2:uid="{6BBACE2F-5368-244E-961E-2B2B095D7D80}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>TimeSheet for RTS Comics</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Review Spreadsheet Uploads</t>
+  </si>
+  <si>
+    <t>Access USPS data</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793FA332-5464-224F-832B-DC45C8D66E8E}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,6 +480,28 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B8">
+        <v>2.4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B9">
+        <v>1.9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/timesheet.xlsx
+++ b/data/timesheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wahhab/Sites/rts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C2E9DB-A6C0-264C-8870-C2F6ACC2243F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB8F152-647D-8346-96ED-5368E0D6DCDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24780" yWindow="13160" windowWidth="27640" windowHeight="16940" xr2:uid="{6BBACE2F-5368-244E-961E-2B2B095D7D80}"/>
+    <workbookView xWindow="24720" yWindow="13160" windowWidth="27640" windowHeight="16940" xr2:uid="{6BBACE2F-5368-244E-961E-2B2B095D7D80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>TimeSheet for RTS Comics</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>Access USPS data</t>
+  </si>
+  <si>
+    <t>Tried updating software versions</t>
+  </si>
+  <si>
+    <t>Head banging</t>
+  </si>
+  <si>
+    <t>Clean up, implement Z+4</t>
+  </si>
+  <si>
+    <t>Implement Zip+4, link to Ebay</t>
+  </si>
+  <si>
+    <t>More of same</t>
+  </si>
+  <si>
+    <t>Install update on pythoneverywhere</t>
   </si>
 </sst>
 </file>
@@ -412,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793FA332-5464-224F-832B-DC45C8D66E8E}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,6 +520,72 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B10">
+        <v>2.4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B11">
+        <v>2.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B12">
+        <v>1.8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B15">
+        <v>1.4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/timesheet.xlsx
+++ b/data/timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wahhab/Sites/rts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB8F152-647D-8346-96ED-5368E0D6DCDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3ECF81-D2C6-EA49-829C-A80AB9BF862B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24720" yWindow="13160" windowWidth="27640" windowHeight="16940" xr2:uid="{6BBACE2F-5368-244E-961E-2B2B095D7D80}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="27640" windowHeight="15940" xr2:uid="{6BBACE2F-5368-244E-961E-2B2B095D7D80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>TimeSheet for RTS Comics</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Install update on pythoneverywhere</t>
+  </si>
+  <si>
+    <t>Stripe implementation</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793FA332-5464-224F-832B-DC45C8D66E8E}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,6 +592,23 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>24.8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <f>SUM(B4:B22)</f>
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
